--- a/TestData/MOCK_DATA.xlsx
+++ b/TestData/MOCK_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDB9DE1-E8D9-466C-A036-7076044DFA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56774F0E-DB2C-4659-87D1-5E0E1B4E99C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,64 +37,64 @@
     <t>ConfPass</t>
   </si>
   <si>
-    <t>Norry</t>
-  </si>
-  <si>
-    <t>naarons0@statcounter.com</t>
-  </si>
-  <si>
-    <t>jK0~cd7rOaDRAK</t>
-  </si>
-  <si>
-    <t>Hayyim</t>
-  </si>
-  <si>
-    <t>hmactrustam1@imdb.com</t>
-  </si>
-  <si>
-    <t>bS0_0{U)?/</t>
-  </si>
-  <si>
-    <t>Barbara</t>
-  </si>
-  <si>
-    <t>bcahillane2@pagesperso-orange.fr</t>
-  </si>
-  <si>
-    <t>rU3_bu)uW8EB7oN</t>
-  </si>
-  <si>
-    <t>Aubert</t>
-  </si>
-  <si>
-    <t>apanswick3@gov.uk</t>
-  </si>
-  <si>
-    <t>cZ9,(NLCaP@KZ&amp;</t>
-  </si>
-  <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t>pgilliard4@infoseek.co.jp</t>
-  </si>
-  <si>
-    <t>yH1{,v|~</t>
-  </si>
-  <si>
-    <t>nannears</t>
-  </si>
-  <si>
-    <t>hfyfes</t>
-  </si>
-  <si>
-    <t>bhubballs</t>
-  </si>
-  <si>
-    <t>aclappa</t>
-  </si>
-  <si>
-    <t>pmacgragha</t>
+    <t>Leanor</t>
+  </si>
+  <si>
+    <t>ljeacocke0</t>
+  </si>
+  <si>
+    <t>lhakking0@quantcast.com</t>
+  </si>
+  <si>
+    <t>wB6=CUJI6ap</t>
+  </si>
+  <si>
+    <t>Bianka</t>
+  </si>
+  <si>
+    <t>bwasielewicz1</t>
+  </si>
+  <si>
+    <t>btroy1@marketwatch.com</t>
+  </si>
+  <si>
+    <t>wH2,r/10@Fb,,</t>
+  </si>
+  <si>
+    <t>Fidel</t>
+  </si>
+  <si>
+    <t>fengelmann2</t>
+  </si>
+  <si>
+    <t>fscawton2@aboutads.info</t>
+  </si>
+  <si>
+    <t>eO4+&amp;x9`|iCIp</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t>nlarcher3</t>
+  </si>
+  <si>
+    <t>ndutt3@bloglines.com</t>
+  </si>
+  <si>
+    <t>dN5!.Mk1|xY7h</t>
+  </si>
+  <si>
+    <t>Alvin</t>
+  </si>
+  <si>
+    <t>ablowes4</t>
+  </si>
+  <si>
+    <t>aramsden4@globo.com</t>
+  </si>
+  <si>
+    <t>zA5!nDZRCS</t>
   </si>
 </sst>
 </file>
@@ -447,16 +447,16 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.09765625" customWidth="1"/>
-    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+    <col min="1" max="1" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -481,84 +481,84 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/MOCK_DATA.xlsx
+++ b/TestData/MOCK_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56774F0E-DB2C-4659-87D1-5E0E1B4E99C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F2088F-B9B6-4482-B620-E66B410C903C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,64 +37,64 @@
     <t>ConfPass</t>
   </si>
   <si>
-    <t>Leanor</t>
-  </si>
-  <si>
-    <t>ljeacocke0</t>
-  </si>
-  <si>
-    <t>lhakking0@quantcast.com</t>
-  </si>
-  <si>
-    <t>wB6=CUJI6ap</t>
-  </si>
-  <si>
-    <t>Bianka</t>
-  </si>
-  <si>
-    <t>bwasielewicz1</t>
-  </si>
-  <si>
-    <t>btroy1@marketwatch.com</t>
-  </si>
-  <si>
-    <t>wH2,r/10@Fb,,</t>
-  </si>
-  <si>
-    <t>Fidel</t>
-  </si>
-  <si>
-    <t>fengelmann2</t>
-  </si>
-  <si>
-    <t>fscawton2@aboutads.info</t>
-  </si>
-  <si>
-    <t>eO4+&amp;x9`|iCIp</t>
-  </si>
-  <si>
-    <t>Nico</t>
-  </si>
-  <si>
-    <t>nlarcher3</t>
-  </si>
-  <si>
-    <t>ndutt3@bloglines.com</t>
-  </si>
-  <si>
-    <t>dN5!.Mk1|xY7h</t>
-  </si>
-  <si>
-    <t>Alvin</t>
-  </si>
-  <si>
-    <t>ablowes4</t>
-  </si>
-  <si>
-    <t>aramsden4@globo.com</t>
-  </si>
-  <si>
-    <t>zA5!nDZRCS</t>
+    <t>Corabelle</t>
+  </si>
+  <si>
+    <t>crubinov0</t>
+  </si>
+  <si>
+    <t>clyokhin0@howstuffworks.com</t>
+  </si>
+  <si>
+    <t>zY7,|1yA0</t>
+  </si>
+  <si>
+    <t>Tabbitha</t>
+  </si>
+  <si>
+    <t>tcurrey1</t>
+  </si>
+  <si>
+    <t>tgulland1@creativecommons.org</t>
+  </si>
+  <si>
+    <t>zN2`&amp;4E3d@PQh}mB</t>
+  </si>
+  <si>
+    <t>Conway</t>
+  </si>
+  <si>
+    <t>cmcconnell2</t>
+  </si>
+  <si>
+    <t>churd2@oakley.com</t>
+  </si>
+  <si>
+    <t>dP4(3.%Bb=#FM`V</t>
+  </si>
+  <si>
+    <t>Gay</t>
+  </si>
+  <si>
+    <t>gtitford3</t>
+  </si>
+  <si>
+    <t>gduckitt3@lulu.com</t>
+  </si>
+  <si>
+    <t>rE1.p}17=u&gt;#q</t>
+  </si>
+  <si>
+    <t>Obie</t>
+  </si>
+  <si>
+    <t>omacewan4</t>
+  </si>
+  <si>
+    <t>ofredy4@shutterfly.com</t>
+  </si>
+  <si>
+    <t>aC5{Ip\@(sj14+@</t>
   </si>
 </sst>
 </file>
@@ -447,16 +447,16 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
